--- a/console/Networking/networkExcel1029/netSecurityMixinsXlsx/detail.xlsx
+++ b/console/Networking/networkExcel1029/netSecurityMixinsXlsx/detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -989,18 +989,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Action </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Default security group cannot be deleted'</t>
     </r>
   </si>
@@ -1061,18 +1049,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Copy Successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Copy</t>
     </r>
   </si>
@@ -1145,18 +1121,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Modify Description</t>
     </r>
   </si>
@@ -1241,18 +1205,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Virtual Machines</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Container</t>
     </r>
   </si>
@@ -1361,18 +1313,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘Delete Public IP Successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Confirm to delete security group</t>
     </r>
   </si>
@@ -1397,18 +1337,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Delete security group successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Add overflow</t>
     </r>
   </si>
@@ -1449,7 +1377,31 @@
     </r>
   </si>
   <si>
-    <t>Affiliated Virtual Private Cloud</t>
+    <t>Operations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual Machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public IP deleted'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security Group Deleted'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,7 +1409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1470,6 +1422,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1493,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1501,9 +1460,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1842,28 +1810,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1871,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1882,10 +1850,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1893,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1904,10 +1872,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1915,21 +1883,21 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1937,10 +1905,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1948,10 +1916,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1959,10 +1927,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1970,10 +1938,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1981,10 +1949,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1992,21 +1960,21 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2014,21 +1982,21 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2036,10 +2004,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2047,10 +2015,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2058,10 +2026,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2069,10 +2037,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2080,10 +2048,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2091,21 +2059,21 @@
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2113,10 +2081,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2124,10 +2092,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2135,10 +2103,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2146,10 +2114,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2157,10 +2125,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2168,10 +2136,10 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2179,10 +2147,10 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2190,10 +2158,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2201,21 +2169,21 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2223,10 +2191,10 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2234,21 +2202,21 @@
         <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2256,10 +2224,10 @@
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2267,10 +2235,10 @@
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2278,10 +2246,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2289,12 +2257,13 @@
         <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B40" numberStoredAsText="1"/>
   </ignoredErrors>
